--- a/Documentation/Risk Assessment/Risk Assessment.xlsx
+++ b/Documentation/Risk Assessment/Risk Assessment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emiljano\Documents\R20PLUS\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emiljano\Desktop\R20PLUS\Documentation\Risk Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AE00A14-82CA-4245-8BA8-7BB4BDBE274E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1333DD70-518B-49A8-A7CC-FB92C193F969}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="5595" windowWidth="28800" windowHeight="15555" xr2:uid="{82406B0B-0AC3-452A-9578-73CDBB5C23DD}"/>
+    <workbookView xWindow="1545" yWindow="1875" windowWidth="28800" windowHeight="16380" xr2:uid="{82406B0B-0AC3-452A-9578-73CDBB5C23DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>Who is at risk?</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Developers</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Data is lost for whatever reason.</t>
   </si>
   <si>
@@ -155,6 +152,52 @@
   </si>
   <si>
     <t>Developers &amp; Cloud/Host Provider</t>
+  </si>
+  <si>
+    <t>Jenkins Server Down</t>
+  </si>
+  <si>
+    <t>Determine location/region. Contact &amp; check jenkins build running</t>
+  </si>
+  <si>
+    <t>Database Keys &amp; URI's Exposed</t>
+  </si>
+  <si>
+    <t>Determine who has been exposed to keys(developers) and who is pinging</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Unhidden Forms</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Low</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Hidden tags added)</t>
+    </r>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Determine which forms are exposed</t>
   </si>
 </sst>
 </file>
@@ -325,109 +368,109 @@
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -744,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F842C3-EFBE-4776-8E72-A00F896E37B8}">
-  <dimension ref="A5:N38"/>
+  <dimension ref="A5:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,490 +798,785 @@
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="29"/>
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="32"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="32"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="32"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="32"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="32"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="35"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="11"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="1" t="s">
+      <c r="D20" s="27"/>
+      <c r="E20" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="10" t="s">
+      <c r="F20" s="27"/>
+      <c r="G20" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="10" t="s">
+      <c r="H20" s="31"/>
+      <c r="I20" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="10" t="s">
+      <c r="J20" s="31"/>
+      <c r="K20" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="16" t="s">
+      <c r="L20" s="31"/>
+      <c r="M20" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N20" s="17"/>
+      <c r="N20" s="16"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="19"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="18"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="19"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="18"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="21"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="20"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22" t="s">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22" t="s">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22" t="s">
+      <c r="H24" s="1"/>
+      <c r="I24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="22"/>
-      <c r="M24" s="24" t="s">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="24"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23" t="s">
+      <c r="D29" s="14"/>
+      <c r="E29" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23" t="s">
+      <c r="H29" s="14"/>
+      <c r="I29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" s="14"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23" t="s">
+      <c r="F34" s="14"/>
+      <c r="G34" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" s="14"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="N29" s="23"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23" t="s">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23" t="s">
+      <c r="F39" s="14"/>
+      <c r="G39" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="N34" s="23"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N39" s="14"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N44" s="14"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N49" s="14"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A24:B28"/>
-    <mergeCell ref="A10:N16"/>
-    <mergeCell ref="M24:N28"/>
-    <mergeCell ref="K24:L28"/>
-    <mergeCell ref="I24:J28"/>
-    <mergeCell ref="G24:H28"/>
-    <mergeCell ref="E24:F28"/>
-    <mergeCell ref="C24:D28"/>
+  <mergeCells count="50">
+    <mergeCell ref="K49:L53"/>
+    <mergeCell ref="M49:N53"/>
+    <mergeCell ref="A49:B53"/>
+    <mergeCell ref="C49:D53"/>
+    <mergeCell ref="E49:F53"/>
+    <mergeCell ref="G49:H53"/>
+    <mergeCell ref="I49:J53"/>
+    <mergeCell ref="K39:L43"/>
+    <mergeCell ref="M39:N43"/>
+    <mergeCell ref="A44:B48"/>
+    <mergeCell ref="C44:D48"/>
+    <mergeCell ref="E44:F48"/>
+    <mergeCell ref="G44:H48"/>
+    <mergeCell ref="I44:J48"/>
+    <mergeCell ref="K44:L48"/>
+    <mergeCell ref="M44:N48"/>
+    <mergeCell ref="A39:B43"/>
+    <mergeCell ref="C39:D43"/>
+    <mergeCell ref="E39:F43"/>
+    <mergeCell ref="G39:H43"/>
+    <mergeCell ref="I39:J43"/>
     <mergeCell ref="M29:N33"/>
     <mergeCell ref="A34:B38"/>
     <mergeCell ref="C34:D38"/>
@@ -1253,6 +1591,14 @@
     <mergeCell ref="G29:H33"/>
     <mergeCell ref="I29:J33"/>
     <mergeCell ref="K29:L33"/>
+    <mergeCell ref="A24:B28"/>
+    <mergeCell ref="A10:N16"/>
+    <mergeCell ref="M24:N28"/>
+    <mergeCell ref="K24:L28"/>
+    <mergeCell ref="I24:J28"/>
+    <mergeCell ref="G24:H28"/>
+    <mergeCell ref="E24:F28"/>
+    <mergeCell ref="C24:D28"/>
     <mergeCell ref="M20:N23"/>
     <mergeCell ref="A20:B23"/>
     <mergeCell ref="C20:D23"/>
